--- a/Data/RawData/YPE_Data/YPE_13_WawonaPointSpring/Digital Data_YPE13/YPE_PILAdata_Plot_13.xlsx
+++ b/Data/RawData/YPE_Data/YPE_13_WawonaPointSpring/Digital Data_YPE13/YPE_PILAdata_Plot_13.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="gW5Z4LhbfqBGsj4q+dWKycXldp5MX1Z/pR8E6KXtI0E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="a8sUVnt9wyu2oZnaZbd1xKf/E0mAUv+B7jDa8BM4FOQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -62,7 +62,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg8VDbGkIcMqvgy5lSN2cjUknbLHA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhJCMGoIQfPo/GQz1yBhGlnB2+t1Q=="/>
     </ext>
   </extLst>
 </comments>
@@ -7627,8 +7627,8 @@
       <c r="AI37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ37" s="4" t="s">
-        <v>68</v>
+      <c r="AJ37" s="4">
+        <v>156.0</v>
       </c>
       <c r="AK37" s="4" t="s">
         <v>68</v>
@@ -7636,8 +7636,8 @@
       <c r="AL37" s="4">
         <v>-39.0</v>
       </c>
-      <c r="AM37" s="4">
-        <v>156.0</v>
+      <c r="AM37" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="AN37" s="4" t="s">
         <v>68</v>
